--- a/_Inputs/PDF (Trial 1).xlsx
+++ b/_Inputs/PDF (Trial 1).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/j_nieto_cgiar_org/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/c_saavedra_cgiar_org/Documents/Documents/GitHub/XX_tool/_Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{A5FCDF43-44FF-4249-A3F3-5B96F676ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4B0075C-A0F1-427E-A214-04FA9C09069D}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{A5FCDF43-44FF-4249-A3F3-5B96F676ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60791B01-C155-4DEE-A43F-974B491B76BE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{5EE837AF-EAE9-4554-80F0-05E50B1DBBC3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{5EE837AF-EAE9-4554-80F0-05E50B1DBBC3}"/>
   </bookViews>
   <sheets>
     <sheet name="MacArthur Foundation" sheetId="5" r:id="rId1"/>
     <sheet name="Gordon &amp; Betty Moore Foundation" sheetId="6" r:id="rId2"/>
-    <sheet name="Howard G. Buffet Foundation" sheetId="2" r:id="rId3"/>
-    <sheet name="IKEA Foundation " sheetId="3" r:id="rId4"/>
+    <sheet name="IKEA Foundation" sheetId="3" r:id="rId3"/>
+    <sheet name="Howard G. Buffet Foundation" sheetId="2" r:id="rId4"/>
     <sheet name="Sean Parker Foundation" sheetId="4" r:id="rId5"/>
     <sheet name="Bloomberg Philanthropies" sheetId="7" r:id="rId6"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>https://www.thehowardgbuffettfoundation.org/where-we-work/</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>https://www.thehowardgbuffettfoundation.org/annual-reports/</t>
-  </si>
-  <si>
-    <t>cat1</t>
   </si>
   <si>
     <t>No</t>
@@ -517,45 +514,45 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="118.5703125" customWidth="1"/>
+    <col min="3" max="3" width="118.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -571,27 +568,27 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -602,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -623,127 +620,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313D253A-92E3-44D4-AE59-53D8280E1ACA}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="110" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F83BB191-C355-426D-B693-5F8DF37DFBF3}"/>
-    <hyperlink ref="C3" r:id="rId2" location="fs" xr:uid="{09470DD8-8284-4061-B25C-06A03515C647}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{F6B62236-8916-4D7E-AEF1-1169603EB43E}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{AAE1283D-243D-479C-B94B-7E52F905C18E}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{FD66FAAD-F361-472D-A2E5-B5098574EBDC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376F41D7-2B1F-43D2-8225-EF986E37AE74}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="119.140625" customWidth="1"/>
+    <col min="3" max="3" width="119.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -752,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -763,7 +656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -774,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -785,7 +678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -796,7 +689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -807,7 +700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -818,7 +711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -829,7 +722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -840,7 +733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -848,106 +741,106 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -966,39 +859,143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313D253A-92E3-44D4-AE59-53D8280E1ACA}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="110" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F83BB191-C355-426D-B693-5F8DF37DFBF3}"/>
+    <hyperlink ref="C3" r:id="rId2" location="fs" xr:uid="{09470DD8-8284-4061-B25C-06A03515C647}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{F6B62236-8916-4D7E-AEF1-1169603EB43E}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{AAE1283D-243D-479C-B94B-7E52F905C18E}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{FD66FAAD-F361-472D-A2E5-B5098574EBDC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A05F1F-F1DB-4134-9260-7F8D47A72417}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1014,27 +1011,27 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="91.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="91.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1042,10 +1039,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1053,16 +1050,16 @@
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
     </row>
   </sheetData>
